--- a/springboot-itext5/src/main/resources/excel/Student.xlsx
+++ b/springboot-itext5/src/main/resources/excel/Student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\springboot-study\springboot-itext5\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoxing/projects/springboot-study/springboot-itext5/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FF2D96-940A-4701-B904-2EFE7DC3A2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADF8E15-1B23-A74A-BA5A-5EEA31B73515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{90DC4149-A8F4-214B-B4EA-A7242F7EDB42}"/>
+    <workbookView xWindow="43100" yWindow="3820" windowWidth="23260" windowHeight="13180" xr2:uid="{90DC4149-A8F4-214B-B4EA-A7242F7EDB42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,17 +118,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642FDD4B-6FDF-4147-92FD-29780162FF27}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="B5" sqref="B5:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -466,7 +463,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="26">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,30 +477,28 @@
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" ht="26" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:9" ht="26" customHeight="1">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -513,16 +508,44 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B4:I4"/>
+  <mergeCells count="12">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/springboot-itext5/src/main/resources/excel/Student.xlsx
+++ b/springboot-itext5/src/main/resources/excel/Student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoxing/projects/springboot-study/springboot-itext5/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADF8E15-1B23-A74A-BA5A-5EEA31B73515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E04B01-BB7C-5C4A-B1C2-6C7C5D0CDCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43100" yWindow="3820" windowWidth="23260" windowHeight="13180" xr2:uid="{90DC4149-A8F4-214B-B4EA-A7242F7EDB42}"/>
+    <workbookView xWindow="51140" yWindow="4220" windowWidth="23320" windowHeight="13600" xr2:uid="{90DC4149-A8F4-214B-B4EA-A7242F7EDB42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -126,6 +126,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,13 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642FDD4B-6FDF-4147-92FD-29780162FF27}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26">
       <c r="A1" s="2" t="s">
@@ -508,7 +516,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="26" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -521,7 +529,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="26" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -532,20 +540,55 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:C4"/>
     <mergeCell ref="H3:I4"/>
-    <mergeCell ref="B5:I6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
